--- a/result_for_print.xlsx
+++ b/result_for_print.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="49">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -188,14 +188,23 @@
     <t>avgaccuate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Rep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fd-cit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p-value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0E+00"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,11 +241,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -543,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:N1"/>
     </sheetView>
   </sheetViews>
@@ -1437,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:U55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1538,68 +1546,68 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.54108072916666605</v>
-      </c>
-      <c r="C3" s="3">
-        <v>7.0088133865790503E-50</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1.82326821950851E-60</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2.04571759259259E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>6.5452777957537199E-46</v>
-      </c>
-      <c r="G3" s="3">
-        <v>8.1789009943422996E-32</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.16576244212962901</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.33087667287162298</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.7455786590938801E-57</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.27269965277777702</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3.2649794689680801E-48</v>
-      </c>
-      <c r="M3" s="3">
-        <v>6.4534109569634799E-41</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.27269965277777702</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3.2649794689680801E-48</v>
-      </c>
-      <c r="P3" s="3">
-        <v>6.4534109569634799E-41</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0.66693190586417195</v>
-      </c>
-      <c r="R3" s="3">
-        <v>3.5667608308282801E-51</v>
-      </c>
-      <c r="S3" s="3">
-        <v>1.06400494725168E-50</v>
-      </c>
-      <c r="T3" s="1">
-        <v>17.723350694444399</v>
-      </c>
-      <c r="U3" s="3">
-        <v>3.1207985982736398E-70</v>
-      </c>
-      <c r="V3" s="3">
-        <v>1.46067143312414E-76</v>
+      <c r="B3">
+        <v>0.54</v>
+      </c>
+      <c r="C3">
+        <v>2.3624105013173001E-51</v>
+      </c>
+      <c r="D3">
+        <v>4.26433640321815E-62</v>
+      </c>
+      <c r="E3">
+        <v>0.02</v>
+      </c>
+      <c r="F3">
+        <v>7.6285337834136398E-45</v>
+      </c>
+      <c r="G3">
+        <v>2.1389058379822802E-30</v>
+      </c>
+      <c r="H3">
+        <v>0.17</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <v>1.64501856421008E-62</v>
+      </c>
+      <c r="K3">
+        <v>0.27</v>
+      </c>
+      <c r="L3">
+        <v>4.8792335768445501E-50</v>
+      </c>
+      <c r="M3">
+        <v>1.14388300367405E-42</v>
+      </c>
+      <c r="N3">
+        <v>0.27</v>
+      </c>
+      <c r="O3">
+        <v>4.8792335768445501E-50</v>
+      </c>
+      <c r="P3">
+        <v>1.14388300367405E-42</v>
+      </c>
+      <c r="Q3">
+        <v>0.67</v>
+      </c>
+      <c r="R3">
+        <v>3.4152021973302302E-52</v>
+      </c>
+      <c r="S3">
+        <v>6.6737672870789899E-52</v>
+      </c>
+      <c r="T3">
+        <v>17.72</v>
+      </c>
+      <c r="U3">
+        <v>6.4277173649646001E-69</v>
+      </c>
+      <c r="V3">
+        <v>2.9955837589947002E-75</v>
       </c>
       <c r="Y3" t="s">
         <v>0</v>
@@ -1614,68 +1622,68 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1">
-        <v>11.299508101851799</v>
-      </c>
-      <c r="U4" s="3">
-        <v>7.86319054596134E-67</v>
-      </c>
-      <c r="V4" s="3">
-        <v>8.9177564537401404E-63</v>
+      <c r="B4">
+        <v>0.83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0.17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.92</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>11.29</v>
+      </c>
+      <c r="U4">
+        <v>2.68789408039691E-69</v>
+      </c>
+      <c r="V4">
+        <v>3.09611055640936E-65</v>
       </c>
       <c r="Y4" t="s">
         <v>0</v>
@@ -1690,68 +1698,68 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.11111111111111099</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.22222222222222199</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>0.88888888888883799</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1">
-        <v>13.132021604938201</v>
-      </c>
-      <c r="U5" s="3">
-        <v>9.0520751750664905E-68</v>
-      </c>
-      <c r="V5" s="3">
-        <v>4.0557385917066701E-66</v>
+      <c r="B5">
+        <v>0.67</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.11</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.22</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.89</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>13.13</v>
+      </c>
+      <c r="U5">
+        <v>2.19777630705033E-68</v>
+      </c>
+      <c r="V5">
+        <v>9.8681663591662396E-67</v>
       </c>
       <c r="Y5" t="s">
         <v>0</v>
@@ -1766,68 +1774,68 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1">
-        <v>9.6770182291666593</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1.46699354661127E-77</v>
-      </c>
-      <c r="V6" s="3">
-        <v>4.4420401812671999E-96</v>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>9.68</v>
+      </c>
+      <c r="U6">
+        <v>3.5414544766447299E-80</v>
+      </c>
+      <c r="V6">
+        <v>1.09932700316566E-98</v>
       </c>
       <c r="Y6" t="s">
         <v>0</v>
@@ -1842,68 +1850,68 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1">
-        <v>13.119079137731401</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1.4057208220548301E-83</v>
-      </c>
-      <c r="V7" s="3">
-        <v>6.3373304968739798E-91</v>
+      <c r="B7">
+        <v>0.83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0.17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.92</v>
+      </c>
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>13.12</v>
+      </c>
+      <c r="U7">
+        <v>9.8296065466887895E-86</v>
+      </c>
+      <c r="V7">
+        <v>4.5322497027424996E-93</v>
       </c>
       <c r="Y7" t="s">
         <v>0</v>
@@ -1918,68 +1926,68 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.75883838383838298</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5.1957712586097503E-37</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.6462942668451199E-39</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4.0909090909090902E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.1129174791512401E-35</v>
-      </c>
-      <c r="G8" s="3">
-        <v>3.5771253726517498E-19</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7.7777777777777696E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.4695567993347899E-7</v>
-      </c>
-      <c r="J8" s="1">
-        <v>5.9750360976656799E-43</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.122474747474747</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0.53288519447197502</v>
-      </c>
-      <c r="M8" s="3">
-        <v>3.1955951382918501E-32</v>
-      </c>
-      <c r="N8" s="1">
-        <v>0.122474747474747</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0.53288519447197502</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1.69972457557995E-65</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0.82499999999999896</v>
-      </c>
-      <c r="R8" s="3">
-        <v>7.9922672464381401E-26</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2.59228157396426E-54</v>
-      </c>
-      <c r="T8" s="1">
-        <v>13.6111111111111</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2.3827660732036598E-53</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4.8956246103711997E-45</v>
+      <c r="B8">
+        <v>0.76</v>
+      </c>
+      <c r="C8">
+        <v>1.55218994842255E-34</v>
+      </c>
+      <c r="D8">
+        <v>4.6554006369468497E-37</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <v>1.26775158249662E-36</v>
+      </c>
+      <c r="G8">
+        <v>2.9705764313643101E-20</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="I8">
+        <v>6.0043626297920795E-8</v>
+      </c>
+      <c r="J8">
+        <v>1.5133480288915599E-44</v>
+      </c>
+      <c r="K8">
+        <v>0.12</v>
+      </c>
+      <c r="L8">
+        <v>0.23</v>
+      </c>
+      <c r="M8">
+        <v>3.77798965270669E-30</v>
+      </c>
+      <c r="N8">
+        <v>0.12</v>
+      </c>
+      <c r="O8">
+        <v>0.23</v>
+      </c>
+      <c r="P8">
+        <v>3.1698569790249701E-63</v>
+      </c>
+      <c r="Q8">
+        <v>0.82</v>
+      </c>
+      <c r="R8">
+        <v>8.1938245213664501E-20</v>
+      </c>
+      <c r="S8">
+        <v>1.7188407478123799E-48</v>
+      </c>
+      <c r="T8">
+        <v>13.63</v>
+      </c>
+      <c r="U8">
+        <v>6.8101171875388502E-51</v>
+      </c>
+      <c r="V8">
+        <v>1.3056179398117201E-42</v>
       </c>
       <c r="Y8" t="s">
         <v>0</v>
@@ -1994,68 +2002,68 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.860813492063492</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.79174665876519E-37</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.79174665876519E-37</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2.3809523809523801E-2</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>7.0138888888888806E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.9853383143550999E-10</v>
-      </c>
-      <c r="J9" s="1">
-        <v>9.7922918309175605E-39</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4.5238095238095202E-2</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0.19527610814502799</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2.9126341923569099E-21</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4.5238095238095202E-2</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0.19527610814502799</v>
-      </c>
-      <c r="P9" s="3">
-        <v>4.5615176856426E-64</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>0.91175595238095197</v>
-      </c>
-      <c r="R9" s="3">
-        <v>8.2849501753916095E-28</v>
-      </c>
-      <c r="S9" s="3">
-        <v>7.2111603107028399E-53</v>
-      </c>
-      <c r="T9" s="1">
-        <v>14.3329365079365</v>
-      </c>
-      <c r="U9" s="3">
-        <v>5.1298159105517301E-51</v>
-      </c>
-      <c r="V9" s="3">
-        <v>6.7008925897484894E-45</v>
+      <c r="B9">
+        <v>0.86</v>
+      </c>
+      <c r="C9">
+        <v>1.81743134835802E-36</v>
+      </c>
+      <c r="D9">
+        <v>1.81743134835802E-36</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.02669957467181E-13</v>
+      </c>
+      <c r="J9">
+        <v>1.0270705770221701E-41</v>
+      </c>
+      <c r="K9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M9">
+        <v>2.09781080536593E-22</v>
+      </c>
+      <c r="N9">
+        <v>0.05</v>
+      </c>
+      <c r="O9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P9">
+        <v>7.3138152444127699E-65</v>
+      </c>
+      <c r="Q9">
+        <v>0.91</v>
+      </c>
+      <c r="R9">
+        <v>1.6911746018732299E-25</v>
+      </c>
+      <c r="S9">
+        <v>4.6888591240822899E-51</v>
+      </c>
+      <c r="T9">
+        <v>14.29</v>
+      </c>
+      <c r="U9">
+        <v>1.52939327315924E-52</v>
+      </c>
+      <c r="V9">
+        <v>2.2200423597089402E-46</v>
       </c>
       <c r="Y9" t="s">
         <v>0</v>
@@ -2070,67 +2078,67 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
-        <v>1.2307692307692299</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1">
-        <v>7.69230769230769E-2</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>0.96153846153846101</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="3">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1">
-        <v>6.7692307692307603</v>
-      </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="B10">
+        <v>1.23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0.08</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.96</v>
+      </c>
+      <c r="R10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>6.77</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
@@ -2144,67 +2152,67 @@
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.82352941176470495</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.17647058823529399</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>0.94117647058823595</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>7.5294117647058796</v>
-      </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="B11">
+        <v>0.82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.94</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>7.53</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>0</v>
       </c>
       <c r="Y11" t="s">
@@ -2218,68 +2226,68 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>9.0909090909090898E-2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0.96969696969696595</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>9.6074915824915799</v>
-      </c>
-      <c r="U12" s="3">
-        <v>3.3655017195333601E-58</v>
-      </c>
-      <c r="V12" s="3">
-        <v>4.8915911922236101E-57</v>
+      <c r="B12">
+        <v>0.91</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.09</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.97</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>9.61</v>
+      </c>
+      <c r="U12">
+        <v>7.1992817847014295E-60</v>
+      </c>
+      <c r="V12">
+        <v>1.0371956528972701E-58</v>
       </c>
       <c r="Y12" t="s">
         <v>0</v>
@@ -2294,68 +2302,68 @@
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>1</v>
       </c>
-      <c r="R13" s="3">
-        <v>0</v>
-      </c>
-      <c r="S13" s="3">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1">
-        <v>9.1940393518518508</v>
-      </c>
-      <c r="U13" s="3">
-        <v>1.03733053380299E-57</v>
-      </c>
-      <c r="V13" s="3">
-        <v>1.29848785993687E-55</v>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>9.19</v>
+      </c>
+      <c r="U13">
+        <v>1.7354262632817699E-56</v>
+      </c>
+      <c r="V13">
+        <v>2.18528865505226E-54</v>
       </c>
       <c r="Y13" t="s">
         <v>0</v>
@@ -2370,68 +2378,68 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1">
-        <v>5.3710648148148099</v>
-      </c>
-      <c r="U14" s="3">
-        <v>5.54882128209845E-50</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1.89761926334845E-47</v>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>5.38</v>
+      </c>
+      <c r="U14">
+        <v>1.33446894121897E-48</v>
+      </c>
+      <c r="V14">
+        <v>4.4548408819043498E-46</v>
       </c>
       <c r="Y14" t="s">
         <v>0</v>
@@ -2446,67 +2454,67 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
-        <v>0.85714285714285698</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.14285714285714199</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>0.952380952380951</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1">
-        <v>9.1428571428571406</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="B15">
+        <v>0.86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.95</v>
+      </c>
+      <c r="R15" t="s">
+        <v>27</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>9.14</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
@@ -2520,68 +2528,68 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.16666666666666599</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>0.91666666666666596</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" s="3">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1">
-        <v>7.2118827160493799</v>
-      </c>
-      <c r="U16" s="3">
-        <v>1.82833736815628E-48</v>
-      </c>
-      <c r="V16" s="3">
-        <v>2.1477287718077799E-47</v>
+      <c r="B16">
+        <v>0.83</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <v>0.17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.92</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>7.22</v>
+      </c>
+      <c r="U16">
+        <v>6.4363592757072603E-49</v>
+      </c>
+      <c r="V16">
+        <v>7.5075888768856804E-48</v>
       </c>
       <c r="Y16" t="s">
         <v>0</v>
@@ -2596,68 +2604,68 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
-        <v>0.10858585858585799</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2.3197323522318501E-17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>1.7075117934165E-29</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.10606060606060599</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.22992424242424</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5.3278572446184299E-18</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.1524310456147699E-31</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.15164141414141399</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3.2687626575247702E-10</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2.17597563582198E-14</v>
-      </c>
-      <c r="N17" s="1">
-        <v>0.98005050505050495</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5.5585371831076696E-35</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4.1845507661702E-5</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>0.40967752926086098</v>
-      </c>
-      <c r="R17" s="3">
-        <v>2.3698065876019001E-37</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2.7009505875534302E-4</v>
-      </c>
-      <c r="T17" s="1">
-        <v>14.4934343434343</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1.68127391151101E-48</v>
-      </c>
-      <c r="V17" s="3">
-        <v>4.1638317025347599E-44</v>
+      <c r="B17">
+        <v>0.11</v>
+      </c>
+      <c r="C17">
+        <v>2.2304186358921799E-15</v>
+      </c>
+      <c r="D17">
+        <v>2.0073608482057499E-27</v>
+      </c>
+      <c r="E17">
+        <v>0.11</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1.23</v>
+      </c>
+      <c r="I17">
+        <v>1.1303687794221001E-17</v>
+      </c>
+      <c r="J17">
+        <v>1.2820465725601801E-30</v>
+      </c>
+      <c r="K17">
+        <v>0.15</v>
+      </c>
+      <c r="L17">
+        <v>1.2994767062039099E-9</v>
+      </c>
+      <c r="M17">
+        <v>6.9089479173104505E-14</v>
+      </c>
+      <c r="N17">
+        <v>0.97</v>
+      </c>
+      <c r="O17">
+        <v>2.1429102829191601E-30</v>
+      </c>
+      <c r="P17">
+        <v>2.5641495657749398E-4</v>
+      </c>
+      <c r="Q17">
+        <v>0.41</v>
+      </c>
+      <c r="R17">
+        <v>2.4640474459504098E-33</v>
+      </c>
+      <c r="S17">
+        <v>3.38438655580385E-4</v>
+      </c>
+      <c r="T17">
+        <v>14.45</v>
+      </c>
+      <c r="U17">
+        <v>2.5613643407549701E-40</v>
+      </c>
+      <c r="V17">
+        <v>6.69896641232911E-36</v>
       </c>
       <c r="Y17" t="s">
         <v>0</v>
@@ -2672,67 +2680,67 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1">
-        <v>11.6666666666666</v>
-      </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="B18">
+        <v>0.67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0.33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.83</v>
+      </c>
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>11.67</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>0</v>
       </c>
       <c r="Y18" t="s">
@@ -4037,7 +4045,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A41">
-        <f t="shared" ref="A41:P56" si="1">IF(ISNUMBER(A24),IF(A24&gt;0.001,ROUND(A24,2),A24),A24)</f>
+        <f t="shared" ref="A41:P55" si="1">IF(ISNUMBER(A24),IF(A24&gt;0.001,ROUND(A24,2),A24),A24)</f>
         <v>0.83</v>
       </c>
       <c r="B41" t="str">
@@ -5328,15 +5336,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7679,7 +7688,7 @@
         <v>3.3412184459644898E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>0.3</v>
@@ -7765,7 +7774,7 @@
         <v>5.2797814966254498E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7848,6 +7857,1185 @@
       </c>
       <c r="U34">
         <f t="shared" si="2"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1.27</v>
+      </c>
+      <c r="C39">
+        <v>1.53</v>
+      </c>
+      <c r="D39">
+        <v>0.17</v>
+      </c>
+      <c r="E39">
+        <v>0.2</v>
+      </c>
+      <c r="F39">
+        <v>3.7</v>
+      </c>
+      <c r="G39">
+        <v>5.3419198837056097E-10</v>
+      </c>
+      <c r="H39">
+        <v>1.17</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>4.8423263758515401E-10</v>
+      </c>
+      <c r="K39">
+        <v>1.4</v>
+      </c>
+      <c r="L39">
+        <v>0.97</v>
+      </c>
+      <c r="M39">
+        <v>0.18</v>
+      </c>
+      <c r="N39">
+        <v>1.6</v>
+      </c>
+      <c r="O39">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0.45</v>
+      </c>
+      <c r="R39">
+        <v>0.5</v>
+      </c>
+      <c r="S39">
+        <v>0.37</v>
+      </c>
+      <c r="T39">
+        <v>117.47</v>
+      </c>
+      <c r="U39">
+        <v>71.97</v>
+      </c>
+      <c r="V39">
+        <v>2.08437180828868E-11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D40">
+        <v>1.8866783869005401E-27</v>
+      </c>
+      <c r="E40">
+        <v>0.37</v>
+      </c>
+      <c r="F40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G40">
+        <v>8.6389317951989396E-27</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0.03</v>
+      </c>
+      <c r="P40">
+        <v>0.33</v>
+      </c>
+      <c r="Q40">
+        <v>0.94</v>
+      </c>
+      <c r="R40">
+        <v>0.52</v>
+      </c>
+      <c r="S40">
+        <v>4.8681609182347802E-27</v>
+      </c>
+      <c r="T40">
+        <v>59.63</v>
+      </c>
+      <c r="U40">
+        <v>63.1</v>
+      </c>
+      <c r="V40">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>0.4</v>
+      </c>
+      <c r="F41">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="G41">
+        <v>2.68875345235459E-21</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0.33</v>
+      </c>
+      <c r="M41">
+        <v>0.02</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0.37</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0.82</v>
+      </c>
+      <c r="R41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S41">
+        <v>2.30836477309807E-15</v>
+      </c>
+      <c r="T41">
+        <v>70.8</v>
+      </c>
+      <c r="U41">
+        <v>58</v>
+      </c>
+      <c r="V41">
+        <v>8.2895726035774703E-8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0.5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42">
+        <v>64.67</v>
+      </c>
+      <c r="U42">
+        <v>74.33</v>
+      </c>
+      <c r="V42">
+        <v>2.0620007331053399E-18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>0.33</v>
+      </c>
+      <c r="F43">
+        <v>5.07</v>
+      </c>
+      <c r="G43">
+        <v>1.45507179864635E-43</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43">
+        <v>0.94</v>
+      </c>
+      <c r="R43">
+        <v>0.52</v>
+      </c>
+      <c r="S43">
+        <v>7.1980027293649605E-24</v>
+      </c>
+      <c r="T43">
+        <v>75.5</v>
+      </c>
+      <c r="U43">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="V43">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2.4</v>
+      </c>
+      <c r="C44">
+        <v>0.7</v>
+      </c>
+      <c r="D44">
+        <v>3.49239029246336E-18</v>
+      </c>
+      <c r="E44">
+        <v>0.4</v>
+      </c>
+      <c r="F44">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G44">
+        <v>3.0407122920662302E-16</v>
+      </c>
+      <c r="H44">
+        <v>0.63</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>8.7163030858302007E-8</v>
+      </c>
+      <c r="K44">
+        <v>0.63</v>
+      </c>
+      <c r="L44">
+        <v>0.13</v>
+      </c>
+      <c r="M44">
+        <v>0.02</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>1.97</v>
+      </c>
+      <c r="P44">
+        <v>1.4302436608465099E-4</v>
+      </c>
+      <c r="Q44">
+        <v>0.59</v>
+      </c>
+      <c r="R44">
+        <v>0.46</v>
+      </c>
+      <c r="S44">
+        <v>1.7237273662711E-5</v>
+      </c>
+      <c r="T44">
+        <v>83.13</v>
+      </c>
+      <c r="U44">
+        <v>100.27</v>
+      </c>
+      <c r="V44">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2.63</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>6.1711956649160806E-14</v>
+      </c>
+      <c r="E45">
+        <v>0.1</v>
+      </c>
+      <c r="F45">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="G45">
+        <v>6.4085863587393002E-15</v>
+      </c>
+      <c r="H45">
+        <v>0.73</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>8.0525123524344805E-10</v>
+      </c>
+      <c r="K45">
+        <v>0.23</v>
+      </c>
+      <c r="L45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.18</v>
+      </c>
+      <c r="N45">
+        <v>0.4</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>1.3780842593539399E-7</v>
+      </c>
+      <c r="Q45">
+        <v>0.72</v>
+      </c>
+      <c r="R45">
+        <v>0.47</v>
+      </c>
+      <c r="S45">
+        <v>2.0305870781861201E-10</v>
+      </c>
+      <c r="T45">
+        <v>89.37</v>
+      </c>
+      <c r="U45">
+        <v>140.57</v>
+      </c>
+      <c r="V45">
+        <v>4.6821329612889098E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>0.8</v>
+      </c>
+      <c r="F46">
+        <v>1.7</v>
+      </c>
+      <c r="G46">
+        <v>7.8081398619332403E-11</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46">
+        <v>0.2</v>
+      </c>
+      <c r="L46">
+        <v>0.3</v>
+      </c>
+      <c r="M46">
+        <v>0.38</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0.43</v>
+      </c>
+      <c r="P46">
+        <v>5.6891377945780102E-5</v>
+      </c>
+      <c r="Q46">
+        <v>0.8</v>
+      </c>
+      <c r="R46">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="S46">
+        <v>2.5226552234498999E-11</v>
+      </c>
+      <c r="T46">
+        <v>31.6</v>
+      </c>
+      <c r="U46">
+        <v>36.57</v>
+      </c>
+      <c r="V46">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C47">
+        <v>1.57</v>
+      </c>
+      <c r="D47">
+        <v>5.8919394268572797E-7</v>
+      </c>
+      <c r="E47">
+        <v>0.67</v>
+      </c>
+      <c r="F47">
+        <v>2.1</v>
+      </c>
+      <c r="G47">
+        <v>5.4437922649333602E-4</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47">
+        <v>0.03</v>
+      </c>
+      <c r="L47">
+        <v>0.13</v>
+      </c>
+      <c r="M47">
+        <v>0.17</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0.8</v>
+      </c>
+      <c r="P47">
+        <v>7.4273978160878601E-6</v>
+      </c>
+      <c r="Q47">
+        <v>0.92</v>
+      </c>
+      <c r="R47">
+        <v>0.65</v>
+      </c>
+      <c r="S47">
+        <v>4.6172188099401098E-9</v>
+      </c>
+      <c r="T47">
+        <v>36.33</v>
+      </c>
+      <c r="U47">
+        <v>59</v>
+      </c>
+      <c r="V47">
+        <v>1.1909796416231E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>1.93</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.3417167916006099E-18</v>
+      </c>
+      <c r="E48">
+        <v>0.33</v>
+      </c>
+      <c r="F48">
+        <v>1.63</v>
+      </c>
+      <c r="G48">
+        <v>7.5591039713420892E-15</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0.37</v>
+      </c>
+      <c r="P48">
+        <v>3.06821971276373E-4</v>
+      </c>
+      <c r="Q48">
+        <v>0.96</v>
+      </c>
+      <c r="R48">
+        <v>0.66</v>
+      </c>
+      <c r="S48">
+        <v>2.0217559671958699E-22</v>
+      </c>
+      <c r="T48">
+        <v>63.67</v>
+      </c>
+      <c r="U48">
+        <v>69.67</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>0.93</v>
+      </c>
+      <c r="D49">
+        <v>3.4824002636696299E-20</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>4.2</v>
+      </c>
+      <c r="G49">
+        <v>1.7825095284332601E-23</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0.72</v>
+      </c>
+      <c r="S49">
+        <v>2.52648596530124E-25</v>
+      </c>
+      <c r="T49">
+        <v>67.83</v>
+      </c>
+      <c r="U49">
+        <v>78</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2.93</v>
+      </c>
+      <c r="G50">
+        <v>1.20730198206945E-32</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.13</v>
+      </c>
+      <c r="P50">
+        <v>0.04</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0.73</v>
+      </c>
+      <c r="S50">
+        <v>4.9564113509400598E-21</v>
+      </c>
+      <c r="T50">
+        <v>58.63</v>
+      </c>
+      <c r="U50">
+        <v>79.27</v>
+      </c>
+      <c r="V50">
+        <v>1.8372805280428701E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>1.97</v>
+      </c>
+      <c r="C51">
+        <v>0.67</v>
+      </c>
+      <c r="D51">
+        <v>2.7063362154498498E-16</v>
+      </c>
+      <c r="E51">
+        <v>0.37</v>
+      </c>
+      <c r="F51">
+        <v>2.67</v>
+      </c>
+      <c r="G51">
+        <v>1.27512982444408E-8</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0.37</v>
+      </c>
+      <c r="P51">
+        <v>3.06821971276373E-4</v>
+      </c>
+      <c r="Q51">
+        <v>0.96</v>
+      </c>
+      <c r="R51">
+        <v>0.61</v>
+      </c>
+      <c r="S51">
+        <v>2.8870350510326901E-22</v>
+      </c>
+      <c r="T51">
+        <v>46.1</v>
+      </c>
+      <c r="U51">
+        <v>58.97</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D52">
+        <v>1.8866783869005401E-27</v>
+      </c>
+      <c r="E52">
+        <v>0.17</v>
+      </c>
+      <c r="F52">
+        <v>5.13</v>
+      </c>
+      <c r="G52">
+        <v>5.9924783564109297E-25</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52">
+        <v>0.97</v>
+      </c>
+      <c r="R52">
+        <v>0.52</v>
+      </c>
+      <c r="S52">
+        <v>9.1253363843066697E-35</v>
+      </c>
+      <c r="T52">
+        <v>43.97</v>
+      </c>
+      <c r="U52">
+        <v>60.1</v>
+      </c>
+      <c r="V52">
+        <v>3.3412184459644898E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>0.3</v>
+      </c>
+      <c r="C53">
+        <v>1.17</v>
+      </c>
+      <c r="D53">
+        <v>2.2268776419688101E-7</v>
+      </c>
+      <c r="E53">
+        <v>0.2</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53">
+        <v>1.42937046516368E-10</v>
+      </c>
+      <c r="H53">
+        <v>3.73</v>
+      </c>
+      <c r="I53">
+        <v>0.5</v>
+      </c>
+      <c r="J53">
+        <v>5.8460330521510201E-21</v>
+      </c>
+      <c r="K53">
+        <v>0.7</v>
+      </c>
+      <c r="L53">
+        <v>1.6</v>
+      </c>
+      <c r="M53">
+        <v>0.01</v>
+      </c>
+      <c r="N53">
+        <v>1.9</v>
+      </c>
+      <c r="O53">
+        <v>1.97</v>
+      </c>
+      <c r="P53">
+        <v>0.87</v>
+      </c>
+      <c r="Q53">
+        <v>0.4</v>
+      </c>
+      <c r="R53">
+        <v>0.42</v>
+      </c>
+      <c r="S53">
+        <v>0.52</v>
+      </c>
+      <c r="T53">
+        <v>53.53</v>
+      </c>
+      <c r="U53">
+        <v>132.66999999999999</v>
+      </c>
+      <c r="V53">
+        <v>5.2797814966254498E-5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54">
+        <v>0.83</v>
+      </c>
+      <c r="R54">
+        <v>0.83</v>
+      </c>
+      <c r="S54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54">
+        <v>68.47</v>
+      </c>
+      <c r="U54">
+        <v>79.67</v>
+      </c>
+      <c r="V54">
         <v>0.03</v>
       </c>
     </row>
@@ -7859,10 +9047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:U34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42:V57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10182,7 +11370,7 @@
         <v>8.8462653607961102E-7</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>0.27</v>
@@ -10268,7 +11456,7 @@
         <v>6.6006929377422597E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -10351,6 +11539,1185 @@
       </c>
       <c r="U34">
         <f t="shared" si="2"/>
+        <v>2.33396950114209E-19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>22</v>
+      </c>
+      <c r="T40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" t="s">
+        <v>48</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>46</v>
+      </c>
+      <c r="L41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" t="s">
+        <v>48</v>
+      </c>
+      <c r="N41" t="s">
+        <v>46</v>
+      </c>
+      <c r="O41" t="s">
+        <v>47</v>
+      </c>
+      <c r="P41" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" t="s">
+        <v>47</v>
+      </c>
+      <c r="S41" t="s">
+        <v>48</v>
+      </c>
+      <c r="T41" t="s">
+        <v>46</v>
+      </c>
+      <c r="U41" t="s">
+        <v>47</v>
+      </c>
+      <c r="V41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>1.33</v>
+      </c>
+      <c r="C42">
+        <v>0.87</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0.13</v>
+      </c>
+      <c r="F42">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="G42">
+        <v>1.8666547622599402E-12</v>
+      </c>
+      <c r="H42">
+        <v>1.23</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>7.3917397038404605E-11</v>
+      </c>
+      <c r="K42">
+        <v>1.17</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>7.68899797403802E-6</v>
+      </c>
+      <c r="N42">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="O42">
+        <v>0.93</v>
+      </c>
+      <c r="P42">
+        <v>8.7784734886261204E-5</v>
+      </c>
+      <c r="Q42">
+        <v>0.44</v>
+      </c>
+      <c r="R42">
+        <v>0.66</v>
+      </c>
+      <c r="S42">
+        <v>3.5385343853536901E-7</v>
+      </c>
+      <c r="T42">
+        <v>205.2</v>
+      </c>
+      <c r="U42">
+        <v>182.13</v>
+      </c>
+      <c r="V42">
+        <v>7.4829625172204302E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>0.23</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>4.1061511333285801E-32</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43">
+        <v>0.96</v>
+      </c>
+      <c r="R43">
+        <v>0.53</v>
+      </c>
+      <c r="S43">
+        <v>1.36789980279972E-24</v>
+      </c>
+      <c r="T43">
+        <v>114.9</v>
+      </c>
+      <c r="U43">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="V43">
+        <v>2.81743023084037E-14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44">
+        <v>0.3</v>
+      </c>
+      <c r="F44">
+        <v>5.83</v>
+      </c>
+      <c r="G44">
+        <v>3.56354104983277E-48</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44">
+        <v>0.82</v>
+      </c>
+      <c r="R44">
+        <v>0.63</v>
+      </c>
+      <c r="S44">
+        <v>1.36948394251466E-36</v>
+      </c>
+      <c r="T44">
+        <v>122.27</v>
+      </c>
+      <c r="U44">
+        <v>129.87</v>
+      </c>
+      <c r="V44">
+        <v>1.5668687312524901E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>0.5</v>
+      </c>
+      <c r="S45" t="s">
+        <v>27</v>
+      </c>
+      <c r="T45">
+        <v>145.77000000000001</v>
+      </c>
+      <c r="U45">
+        <v>190.53</v>
+      </c>
+      <c r="V45">
+        <v>6.2460111744863298E-52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>0.43</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>1.33183666690651E-29</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>0.93</v>
+      </c>
+      <c r="R46">
+        <v>0.53</v>
+      </c>
+      <c r="S46">
+        <v>1.1056514322479099E-21</v>
+      </c>
+      <c r="T46">
+        <v>161.22999999999999</v>
+      </c>
+      <c r="U46">
+        <v>187.47</v>
+      </c>
+      <c r="V46">
+        <v>3.3866867940371102E-16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.93</v>
+      </c>
+      <c r="D47">
+        <v>8.3328205373791902E-16</v>
+      </c>
+      <c r="E47">
+        <v>0.33</v>
+      </c>
+      <c r="F47">
+        <v>12.9</v>
+      </c>
+      <c r="G47">
+        <v>3.86046022099341E-22</v>
+      </c>
+      <c r="H47">
+        <v>0.67</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2.1380892374201699E-8</v>
+      </c>
+      <c r="K47">
+        <v>0.77</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1.47</v>
+      </c>
+      <c r="O47">
+        <v>1.17</v>
+      </c>
+      <c r="P47">
+        <v>0.26</v>
+      </c>
+      <c r="Q47">
+        <v>0.53</v>
+      </c>
+      <c r="R47">
+        <v>0.48</v>
+      </c>
+      <c r="S47">
+        <v>0.08</v>
+      </c>
+      <c r="T47">
+        <v>123.57</v>
+      </c>
+      <c r="U47">
+        <v>178.4</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>2.9</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1.4701740416595E-12</v>
+      </c>
+      <c r="E48">
+        <v>0.1</v>
+      </c>
+      <c r="F48">
+        <v>13.53</v>
+      </c>
+      <c r="G48">
+        <v>7.9516416065767704E-23</v>
+      </c>
+      <c r="H48">
+        <v>0.63</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>8.7163030858302404E-8</v>
+      </c>
+      <c r="K48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0.33</v>
+      </c>
+      <c r="N48">
+        <v>0.53</v>
+      </c>
+      <c r="O48">
+        <v>0.77</v>
+      </c>
+      <c r="P48">
+        <v>0.25</v>
+      </c>
+      <c r="Q48">
+        <v>0.76</v>
+      </c>
+      <c r="R48">
+        <v>0.5</v>
+      </c>
+      <c r="S48">
+        <v>1.5637836732758999E-10</v>
+      </c>
+      <c r="T48">
+        <v>150.22999999999999</v>
+      </c>
+      <c r="U48">
+        <v>255.93</v>
+      </c>
+      <c r="V48">
+        <v>4.5820658473658803E-5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49">
+        <v>0.83</v>
+      </c>
+      <c r="R49">
+        <v>0.67</v>
+      </c>
+      <c r="S49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49">
+        <v>48.63</v>
+      </c>
+      <c r="U49">
+        <v>77.569999999999993</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50">
+        <v>2.93</v>
+      </c>
+      <c r="C50">
+        <v>1.97</v>
+      </c>
+      <c r="D50">
+        <v>5.6939775315975095E-23</v>
+      </c>
+      <c r="E50">
+        <v>0.5</v>
+      </c>
+      <c r="F50">
+        <v>1.9</v>
+      </c>
+      <c r="G50">
+        <v>7.4605183378083494E-12</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0.2</v>
+      </c>
+      <c r="P50">
+        <v>0.01</v>
+      </c>
+      <c r="Q50">
+        <v>0.96</v>
+      </c>
+      <c r="R50">
+        <v>0.74</v>
+      </c>
+      <c r="S50">
+        <v>5.7598687917331802E-25</v>
+      </c>
+      <c r="T50">
+        <v>52.87</v>
+      </c>
+      <c r="U50">
+        <v>114.8</v>
+      </c>
+      <c r="V50">
+        <v>5.5715554210609703E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>0.3</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1.69298265713155E-18</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51">
+        <v>0.97</v>
+      </c>
+      <c r="R51">
+        <v>0.72</v>
+      </c>
+      <c r="S51">
+        <v>2.8451265203427098E-22</v>
+      </c>
+      <c r="T51">
+        <v>132.69999999999999</v>
+      </c>
+      <c r="U51">
+        <v>161.22999999999999</v>
+      </c>
+      <c r="V51">
+        <v>1.9804827252704801E-20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+      <c r="R52">
+        <v>0.73</v>
+      </c>
+      <c r="S52" t="s">
+        <v>27</v>
+      </c>
+      <c r="T52">
+        <v>147.07</v>
+      </c>
+      <c r="U52">
+        <v>184.77</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>3</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0.75</v>
+      </c>
+      <c r="S53" t="s">
+        <v>27</v>
+      </c>
+      <c r="T53">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="U53">
+        <v>158.4</v>
+      </c>
+      <c r="V53">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0.77</v>
+      </c>
+      <c r="D54">
+        <v>1.02437274686311E-15</v>
+      </c>
+      <c r="E54">
+        <v>0.27</v>
+      </c>
+      <c r="F54">
+        <v>2.8</v>
+      </c>
+      <c r="G54">
+        <v>8.4252901039551302E-10</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0.03</v>
+      </c>
+      <c r="P54">
+        <v>0.33</v>
+      </c>
+      <c r="Q54">
+        <v>0.97</v>
+      </c>
+      <c r="R54">
+        <v>0.68</v>
+      </c>
+      <c r="S54">
+        <v>7.7553937385391696E-22</v>
+      </c>
+      <c r="T54">
+        <v>76.77</v>
+      </c>
+      <c r="U54">
+        <v>128.87</v>
+      </c>
+      <c r="V54">
+        <v>1.70291024700824E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>0.3</v>
+      </c>
+      <c r="F55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>6.17559249672738E-31</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q55">
+        <v>0.95</v>
+      </c>
+      <c r="R55">
+        <v>0.53</v>
+      </c>
+      <c r="S55">
+        <v>2.7282042738639003E-23</v>
+      </c>
+      <c r="T55">
+        <v>86.9</v>
+      </c>
+      <c r="U55">
+        <v>108.7</v>
+      </c>
+      <c r="V55">
+        <v>8.8462653607961102E-7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56">
+        <v>0.27</v>
+      </c>
+      <c r="C56">
+        <v>1.87</v>
+      </c>
+      <c r="D56">
+        <v>1.52338451648714E-21</v>
+      </c>
+      <c r="E56">
+        <v>0.33</v>
+      </c>
+      <c r="F56">
+        <v>4.97</v>
+      </c>
+      <c r="G56">
+        <v>1.11483673062914E-23</v>
+      </c>
+      <c r="H56">
+        <v>3.57</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5.0436591461833502E-19</v>
+      </c>
+      <c r="K56">
+        <v>0.7</v>
+      </c>
+      <c r="L56">
+        <v>1.03</v>
+      </c>
+      <c r="M56">
+        <v>0.15</v>
+      </c>
+      <c r="N56">
+        <v>1.63</v>
+      </c>
+      <c r="O56">
+        <v>1.83</v>
+      </c>
+      <c r="P56">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q56">
+        <v>0.42</v>
+      </c>
+      <c r="R56">
+        <v>0.49</v>
+      </c>
+      <c r="S56">
+        <v>0.01</v>
+      </c>
+      <c r="T56">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="U56">
+        <v>172.57</v>
+      </c>
+      <c r="V56">
+        <v>6.6006929377422597E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57">
+        <v>0.83</v>
+      </c>
+      <c r="R57">
+        <v>0.83</v>
+      </c>
+      <c r="S57" t="s">
+        <v>27</v>
+      </c>
+      <c r="T57">
+        <v>103.9</v>
+      </c>
+      <c r="U57">
+        <v>118.5</v>
+      </c>
+      <c r="V57">
         <v>2.33396950114209E-19</v>
       </c>
     </row>
@@ -10362,10 +12729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:U34"/>
+    <sheetView topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12685,7 +15052,7 @@
         <v>6.0819287840955898E-9</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>0.4</v>
@@ -12771,7 +15138,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -12854,6 +15221,1185 @@
       </c>
       <c r="U34">
         <f t="shared" si="2"/>
+        <v>1.53853844337687E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N38" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" t="s">
+        <v>48</v>
+      </c>
+      <c r="T38" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" t="s">
+        <v>47</v>
+      </c>
+      <c r="V38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1.43</v>
+      </c>
+      <c r="C39">
+        <v>0.9</v>
+      </c>
+      <c r="D39">
+        <v>3.3115919040867801E-4</v>
+      </c>
+      <c r="E39">
+        <v>0.13</v>
+      </c>
+      <c r="F39">
+        <v>8.83</v>
+      </c>
+      <c r="G39">
+        <v>5.2826656503299697E-18</v>
+      </c>
+      <c r="H39">
+        <v>1.6</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1.3019641379535501E-15</v>
+      </c>
+      <c r="K39">
+        <v>0.6</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>9.6128879814032198E-4</v>
+      </c>
+      <c r="N39">
+        <v>2.5</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>2.6176303614783202E-10</v>
+      </c>
+      <c r="Q39">
+        <v>0.49</v>
+      </c>
+      <c r="R39">
+        <v>0.7</v>
+      </c>
+      <c r="S39">
+        <v>1.34186719180537E-8</v>
+      </c>
+      <c r="T39">
+        <v>387.2</v>
+      </c>
+      <c r="U39">
+        <v>418.83</v>
+      </c>
+      <c r="V39">
+        <v>2.7695875525003101E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>6.7385642012405802E-33</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q40">
+        <v>0.97</v>
+      </c>
+      <c r="R40">
+        <v>0.53</v>
+      </c>
+      <c r="S40">
+        <v>1.9635936491883699E-25</v>
+      </c>
+      <c r="T40">
+        <v>239.23</v>
+      </c>
+      <c r="U40">
+        <v>297.13</v>
+      </c>
+      <c r="V40">
+        <v>6.4569810840794502E-34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41">
+        <v>0.17</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>3.1569389226739401E-36</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41">
+        <v>0.83</v>
+      </c>
+      <c r="R41">
+        <v>0.64</v>
+      </c>
+      <c r="S41">
+        <v>4.9693514931592498E-36</v>
+      </c>
+      <c r="T41">
+        <v>248.03</v>
+      </c>
+      <c r="U41">
+        <v>297.67</v>
+      </c>
+      <c r="V41">
+        <v>3.18538829967709E-22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0.5</v>
+      </c>
+      <c r="S42" t="s">
+        <v>27</v>
+      </c>
+      <c r="T42">
+        <v>330.8</v>
+      </c>
+      <c r="U42">
+        <v>451.47</v>
+      </c>
+      <c r="V42">
+        <v>5.29361573799345E-68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43">
+        <v>0.33</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>1.70745504507142E-30</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43">
+        <v>0.94</v>
+      </c>
+      <c r="R43">
+        <v>0.53</v>
+      </c>
+      <c r="S43">
+        <v>8.7545080383940695E-23</v>
+      </c>
+      <c r="T43">
+        <v>357.8</v>
+      </c>
+      <c r="U43">
+        <v>457.73</v>
+      </c>
+      <c r="V43">
+        <v>1.27914225461519E-44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>2.17</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2.5454232760302701E-14</v>
+      </c>
+      <c r="E44">
+        <v>0.43</v>
+      </c>
+      <c r="F44">
+        <v>22</v>
+      </c>
+      <c r="G44">
+        <v>8.0073411087529801E-42</v>
+      </c>
+      <c r="H44">
+        <v>0.8</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1.19384723339901E-11</v>
+      </c>
+      <c r="K44">
+        <v>0.3</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0.06</v>
+      </c>
+      <c r="N44">
+        <v>0.93</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>1.49379410274529E-4</v>
+      </c>
+      <c r="Q44">
+        <v>0.61</v>
+      </c>
+      <c r="R44">
+        <v>0.45</v>
+      </c>
+      <c r="S44">
+        <v>4.6197301370457299E-7</v>
+      </c>
+      <c r="T44">
+        <v>178.53</v>
+      </c>
+      <c r="U44">
+        <v>255.63</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>2.63</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>6.3690744126740001E-12</v>
+      </c>
+      <c r="E45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F45">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G45">
+        <v>2.13589473798922E-41</v>
+      </c>
+      <c r="H45">
+        <v>0.77</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1.13811822017374E-10</v>
+      </c>
+      <c r="K45">
+        <v>0.03</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0.33</v>
+      </c>
+      <c r="N45">
+        <v>0.3</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0.03</v>
+      </c>
+      <c r="Q45">
+        <v>0.77</v>
+      </c>
+      <c r="R45">
+        <v>0.47</v>
+      </c>
+      <c r="S45">
+        <v>3.2495304786612797E-14</v>
+      </c>
+      <c r="T45">
+        <v>244.33</v>
+      </c>
+      <c r="U45">
+        <v>303.52999999999997</v>
+      </c>
+      <c r="V45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q46">
+        <v>0.83</v>
+      </c>
+      <c r="R46">
+        <v>0.67</v>
+      </c>
+      <c r="S46" t="s">
+        <v>27</v>
+      </c>
+      <c r="T46">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="U46">
+        <v>95</v>
+      </c>
+      <c r="V46">
+        <v>1.9659804133900701E-12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>1.26465717634456E-15</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47">
+        <v>0.95</v>
+      </c>
+      <c r="R47">
+        <v>0.77</v>
+      </c>
+      <c r="S47">
+        <v>8.1588916424599803E-21</v>
+      </c>
+      <c r="T47">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="U47">
+        <v>151.63</v>
+      </c>
+      <c r="V47">
+        <v>1.25484227818917E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>0.43</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1.22661684378932E-16</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48">
+        <v>0.95</v>
+      </c>
+      <c r="R48">
+        <v>0.72</v>
+      </c>
+      <c r="S48">
+        <v>6.9285836384718598E-20</v>
+      </c>
+      <c r="T48">
+        <v>266.63</v>
+      </c>
+      <c r="U48">
+        <v>355.4</v>
+      </c>
+      <c r="V48">
+        <v>1.31549356856464E-39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+      <c r="R49">
+        <v>0.73</v>
+      </c>
+      <c r="S49" t="s">
+        <v>27</v>
+      </c>
+      <c r="T49">
+        <v>299.60000000000002</v>
+      </c>
+      <c r="U49">
+        <v>370.87</v>
+      </c>
+      <c r="V49">
+        <v>6.4893027886045195E-42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+      <c r="R50">
+        <v>0.75</v>
+      </c>
+      <c r="S50" t="s">
+        <v>27</v>
+      </c>
+      <c r="T50">
+        <v>278.17</v>
+      </c>
+      <c r="U50">
+        <v>338.1</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>0.37</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51">
+        <v>1.92638997326194E-17</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51">
+        <v>0.96</v>
+      </c>
+      <c r="R51">
+        <v>0.72</v>
+      </c>
+      <c r="S51">
+        <v>1.33845183456341E-20</v>
+      </c>
+      <c r="T51">
+        <v>138.83000000000001</v>
+      </c>
+      <c r="U51">
+        <v>191.87</v>
+      </c>
+      <c r="V51">
+        <v>2.13759752199547E-38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>0.3</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>6.17559249672738E-31</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52">
+        <v>0.95</v>
+      </c>
+      <c r="R52">
+        <v>0.53</v>
+      </c>
+      <c r="S52">
+        <v>2.7282042738639003E-23</v>
+      </c>
+      <c r="T52">
+        <v>163.03</v>
+      </c>
+      <c r="U52">
+        <v>210.73</v>
+      </c>
+      <c r="V52">
+        <v>6.0819287840955898E-9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>0.4</v>
+      </c>
+      <c r="C53">
+        <v>1.93</v>
+      </c>
+      <c r="D53">
+        <v>9.8330382830588592E-19</v>
+      </c>
+      <c r="E53">
+        <v>0.33</v>
+      </c>
+      <c r="F53">
+        <v>6.6</v>
+      </c>
+      <c r="G53">
+        <v>1.2697407365553001E-43</v>
+      </c>
+      <c r="H53">
+        <v>3.8</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>6.5356340490428099E-20</v>
+      </c>
+      <c r="K53">
+        <v>0.3</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0.02</v>
+      </c>
+      <c r="N53">
+        <v>1.8</v>
+      </c>
+      <c r="O53">
+        <v>0.7</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0.44</v>
+      </c>
+      <c r="R53">
+        <v>0.6</v>
+      </c>
+      <c r="S53">
+        <v>6.2457356763356399E-11</v>
+      </c>
+      <c r="T53">
+        <v>133.1</v>
+      </c>
+      <c r="U53">
+        <v>226.6</v>
+      </c>
+      <c r="V53">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q54">
+        <v>0.83</v>
+      </c>
+      <c r="R54">
+        <v>0.83</v>
+      </c>
+      <c r="S54" t="s">
+        <v>27</v>
+      </c>
+      <c r="T54">
+        <v>172.37</v>
+      </c>
+      <c r="U54">
+        <v>243.63</v>
+      </c>
+      <c r="V54">
         <v>1.53853844337687E-4</v>
       </c>
     </row>
